--- a/GS1_topics_v3.xlsx
+++ b/GS1_topics_v3.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\SURP-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0053EA0-EDA6-47E5-88FB-E7CB8ED8D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2AA9E7-DA7A-4BA9-AE3E-A972667A371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$236</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$2:$I$236</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$236</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$2:$I$236</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$236</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$2:$I$236</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$236</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$I$2:$I$236</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="244">
   <si>
     <t>Outliers</t>
   </si>
@@ -41,6 +51,12 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Explain the role of geographical factors towards the development of Ancient India.</t>
@@ -755,18 +771,6 @@
   </si>
   <si>
     <t>It is said that India has substantial reserves of shale oil and gas, which can feed the needs of the country for quarter century. However, tapping of the resource does not appear to be high on the agenda. Discuss critically the availability and issues involved.</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -810,7 +814,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -822,84 +828,17 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -910,22 +849,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{577D4CE3-1B5A-449A-889E-6D5382F45F8F}" name="Table1" displayName="Table1" ref="A1:G236" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:G236" xr:uid="{577D4CE3-1B5A-449A-889E-6D5382F45F8F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE4B9887-0482-4801-98CB-45201EE49606}" name="Outliers" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{67B8D98A-5B28-4725-8745-C67F2B769E1C}" name="Climate Change and Natural Resources" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{511DB590-B295-4907-AB70-9B9E895A78F6}" name="British India and Independence" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{CB16FC7D-CF42-4B8A-B009-094D5F982068}" name="Development and Urbanisation" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E99191FA-AF4C-4060-B033-AC56D53BFD30}" name="Indian Society" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B6244C68-F455-4050-977E-4B4D9C250029}" name="Art and Heritage" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{7DB3CBBE-3170-490B-B6BB-120EA7A5EA1A}" name="Question" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1211,5503 +1134,6871 @@
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="2">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5CCF6A18-3CFD-45F6-B57C-88B327F75E2E}">
-  <we:reference id="wa200005502" version="1.0.0.11" store="en-US" storeType="OMEX"/>
-  <we:alternateReferences>
-    <we:reference id="wa200005502" version="1.0.0.11" store="wa200005502" storeType="OMEX"/>
-  </we:alternateReferences>
-  <we:properties>
-    <we:property name="docId" value="&quot;3Ag7ESXPUnKCVk0zZqYbC&quot;"/>
-  </we:properties>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-  <we:extLst>
-    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
-      <we:customFunctionIdList>
-        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
-        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
-      </we:customFunctionIdList>
-    </a:ext>
-  </we:extLst>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="111.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="67.21875" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>9.8250483345161455E-2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.1982497641092083</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.16151116061989709</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.16151116061989709</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.19860010228857991</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.18187732901725631</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>0.17855132939813209</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.18948322112325761</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>8.7330884366080191E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.17855132939813209</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.16953543610314639</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.19654779961125171</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>0.1410420668006532</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.18791289785497789</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.1410420668006532</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.1410420668006532</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.17209445971187201</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.21686644203119049</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>0.1695149067600186</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.13342264478593849</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.1628093026896956</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.1695149067600186</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.17627678101888861</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.1884614579854402</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>0.17493406486014221</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>9.0053872580523581E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.15858532105848819</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.1765005092139004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.18508348122838719</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.21484275105855841</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>0.16612096580081559</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.16641204558080239</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.15042244188466289</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.16936973926958079</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.1648797438569424</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.182795063607196</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>0.18141269739960239</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.12957567480319929</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.17220112043842001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.17630145571780739</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.161302697495292</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.17920635414567901</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>0.15696267625222179</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.20125009762188381</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.1094975130190767</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.15696267625222179</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.18941247960968441</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.1859145572449114</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>0.13761967181391141</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.24100219590131039</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.1237580630930092</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.13761967181391141</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8.2975919971932682E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.27702447740592501</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0.17067615694128929</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.1720302697372901</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.15331462652952441</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.155727733713445</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.15604549435683429</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.1922057187216169</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>0.18440637129099779</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.2100887064076857</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.15513676320363931</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.18440637129099779</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>8.8781633990996742E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.17718015381568269</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>0.16844861064236161</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.2104154422075375</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.15317620877449931</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.16844861064236161</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.1206396003267662</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.1788715274064738</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>0.1312694077132773</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>0.20751822276493301</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.1312694077132773</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.1312694077132773</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.16398831743583431</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.2346852366594008</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>0.1536600791283402</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>0.1126049675988275</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.1536600791283402</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.1536600791283402</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.20543527089636909</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.22097952411978289</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>2.6373306955125311E-2</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>0.22503266994277329</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.19528499549582309</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.19528499549582309</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>8.77846837652317E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.27023934834522351</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>0.1018797657893019</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>0.21061804314021079</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.13660324061856979</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.13660324061856979</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.18302189013802481</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.2312738196953229</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>0.12242214791004</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>0.19805634370355091</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>0.12242214791004</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.12242214791004</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>0.20031307956097369</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.23436413300535541</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>0.16433889986857039</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>0.18090091177411549</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>0.1553667364848951</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>8.3097551433375091E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>0.16560776291740481</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0.25068813752163899</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>0.1580395751520712</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>0.19943860822646711</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>0.1580395751520712</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.1580395751520712</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>0.1251576381222704</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.2012850281950489</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>0.15615635174462</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>0.18365460901403491</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.15317808969510829</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.15615635174462</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.1486446890399562</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.20220990876166051</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>0.2049787653882259</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>0.2414670887158335</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.17336349913032939</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.2049787653882259</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.14985242647141869</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>2.5359454905966521E-2</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>0.1595794171779413</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>0.20026282986210189</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>4.0613772784316299E-2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.1595794171779413</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>0.20543238836656991</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.23453217463112941</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>0.14854323670571301</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>0.18256060276672051</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.14854323670571301</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.14854323670571301</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.18091785883964639</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.19089182827649431</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="G24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>0.17072862877554329</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>0.16117217278460161</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>0.15132730625937299</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.17072862877554329</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>0.16705899520213219</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.17898426820280661</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>0.13241822225774411</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>0.1822994363407581</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>0.13241822225774411</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.13241822225774411</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>0.20137777594329709</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.2190681209427125</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="G26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>0.1695080487240099</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>0.14767672540250401</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>0.1535320406134644</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>0.1695080487240099</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>0.17622408581473401</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.18355105072127781</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>0.14494651556332999</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>0.1920313878391855</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>0.14494651556332999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>0.11063349941325019</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>0.19901709114433139</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0.20842499047657281</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="G28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>0.1670850470880515</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>0.1725084984657777</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>0.14839330718864191</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>0.1670850470880515</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>0.16021732543598299</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0.1847107747334944</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="G29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>0.16963438238259959</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>0.16696051218013169</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>0.16963438238259959</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>0.15669801504967409</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>0.15096707953073391</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0.18610562847426099</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="G30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>0.14886352375107301</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>0.19830189836904971</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>0.14886352375107301</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>0.14886352375107301</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>0.15903994806293359</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.19606758231479779</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="G31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>0.1610501688720874</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>0.17846990587544559</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>0.13126861711278009</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>0.1610501688720874</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>0.1718265588836228</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0.19633458038397669</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="G32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>0.19472674519692551</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>0.23392532225679419</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>0.1537567876423806</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>0.19472674519692551</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>0.17142459381000771</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>5.1439805896966527E-2</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="G33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>0.17107139369866031</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>0.20657183015011191</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>0.14850648964156521</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>0.17107139369866031</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>0.176384294683395</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0.12639459812760739</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="G34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>0.1658575113366732</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>0.17100570151190461</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>0.14678901620386939</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>0.1624874214286626</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>0.1664123032258788</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0.1874480462930114</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="G35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>0.1557206310642337</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>0.1739688433978461</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>0.1557206310642337</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>0.1557206310642337</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>0.17308075153208921</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>0.1857885118773635</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="G36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>0.16796220389561181</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>0.17848249410551911</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>0.13895518138486351</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>0.16223963890495749</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>0.16961277370308281</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>0.18274770800596529</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="G37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>0.18142740559454609</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>0.1178961913142593</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>0.15598285122968261</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>0.18142740559454609</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>0.17902336259020241</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>0.1842427836767635</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="G38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>0.1636750186595303</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>0.21585307492914779</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>0.14913183385538281</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>0.1636750186595303</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>0.1008050929729243</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>0.20685996092348449</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="G39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>0.16729968177351859</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>0.20058522406761989</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>0.13576766734559129</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>0.16729968177351859</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>0.14117269623015241</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>0.18787504880959921</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="G40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>0.13374814300665891</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>0.16762602987548961</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>0.13374814300665891</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>0.13374814300665891</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>0.2101749524199984</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>0.2209545886845351</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="G41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>0.16811494044072531</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>0.2171637640931911</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>0.1308458975811814</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>0.16811494044072531</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>0.15472089165804909</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0.16103956578612791</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="G42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>0.16321792081907291</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>0.18295587028641089</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>0.16122452742291979</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>0.16321792081907291</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>0.1528878038372472</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0.17649595681527619</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="G43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>0.1604193672009763</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>0.19564880394829121</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>0.1459902301685149</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>0.1604193672009763</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>0.1449122701273019</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0.1926099613539394</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="G44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>0.1739370366412252</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>8.0892412535012087E-2</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>0.16964670035117721</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>0.1739370366412252</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>0.1954746508732208</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0.20611216295813961</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="G45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>0.14428308495065839</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>0.18759364451017849</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>0.14428308495065839</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>0.14428308495065839</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>0.18078710642666859</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0.1987699942111778</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="G46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>0.17643909833696059</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>0.1440027767002485</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>0.1633048728909223</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>0.1368624130301187</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>0.17845547277733689</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0.20093536626441291</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="G47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>0.1680303534905852</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>0.16554001825628731</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>0.1551557339869935</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>0.1680303534905852</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>0.15776346509180519</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>0.18548007568374369</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="G48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>0.1096947161579068</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>0.216797400041111</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>0.1096947161579068</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>0.1096947161579068</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>0.20591533515662619</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>0.24820311632854231</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="G49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>0.18252696362241641</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>0.19458287855892181</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>0.1554176721793491</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>0.18252696362241641</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>0.100824457683539</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>0.1841210643333572</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="G50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>0.1472321372586268</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>0.1891220471946394</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>0.1142414538672071</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>0.1472321372586268</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>0.17895904102023219</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>0.2232131834006677</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="G51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>0.16514007127395899</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>0.17132742406190821</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>0.15502462539811901</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>0.16514007127395899</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>0.16409350582673851</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>0.1792743021653162</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="G52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>0.1883933434788044</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>0.19234427775239851</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>5.8787626667482662E-2</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>0.16682807691116849</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>0.17968121169220891</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>0.21396546349793699</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="G53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>0.16109791120803929</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>0.17303376747545149</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>0.14494799935423469</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>0.16109791120803929</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>0.17083137711720581</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>0.18899103363702929</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="G54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>0.16829793863109591</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>0.14219212989212071</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>0.15845167807800889</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>0.16829793863109591</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>0.17532388802707019</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>0.18743642674060851</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="G55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>0.17974170571893039</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>0.13104414849364879</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>0.16306677746194889</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>0.1726458547205508</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>0.16790574923152371</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>0.18559576437339739</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="G56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>0.1216905912861508</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>0.18298971024763891</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>0.15269226206871489</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>0.16947809135171299</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>0.17798267817602731</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>0.1951666668697552</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="G57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>0.139467090078634</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>0.15191327354875631</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>0.139467090078634</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>0.139467090078634</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>0.19081571323144411</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>0.23886974298389771</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="G58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>0.13329981499019111</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>0.19536734590161781</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>0.13329981499019111</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>0.12813197609412821</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>0.1831368059512333</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>0.22676424207263851</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="G59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>0.16776677279264099</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>0.19569135432744811</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>0.1509827418947057</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>0.16776677279264099</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>0.1231978491958307</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>0.19459450899673361</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="G60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>0.1677580349434161</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>0.2418351178208569</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>0.14402864712045491</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>0.1677580349434161</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>5.0053608085321583E-2</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>0.22856655708653439</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="G61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>0.18999374857651799</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>0.2081038140136045</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>0.14736030948081841</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>0.18999374857651799</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>0.16563111697324531</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>9.891726237929592E-2</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="G62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>0.16183897188852589</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>0.19120210473507071</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>0.13873482919033389</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>0.16183897188852589</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>0.20560985519923769</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>0.1407752670983059</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="G63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>0.1681629879975837</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>0.17080552062380591</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>0.15273108803398119</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>0.1662170409715521</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>0.16144573301652909</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0.18063762935654801</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="G64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>0.1697694668928495</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>0.1651717125582948</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>0.15921721618978149</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>0.16969667353871121</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>0.1674839168472059</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>0.16866101397315719</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="G65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>0.17537298419628369</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>0.12726030427939819</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>0.16441907768458611</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>0.1643523999490199</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>0.1798148058513365</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>0.18878042803937559</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="G66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>0.16119047221886409</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>8.8756842307022632E-2</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>0.16119047221886409</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>0.16119047221886409</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>0.2073497434116289</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>0.22032199762475621</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="G67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>0.17856562546879279</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>0.1881901662775663</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>0.1693040389692384</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>6.7688178467042323E-2</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>0.19264378035768079</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>0.20360821045967939</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="G68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>0.18205002810875409</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>0.20795098262281589</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>0.15322078448431581</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>0.18205002810875409</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>8.1912854574696423E-2</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>0.19281532210066371</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="G69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>9.8253496441184654E-2</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>0.1867524680247967</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>0.15782610097104999</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>0.15782610097104999</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>0.1824423549268378</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0.2168994786650808</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="G70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>0.1372988521941535</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>0.20352515015400449</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>0.14380765771630699</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>0.14380765771630699</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>0.1573191464881411</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>0.21424153573108701</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="G71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>0.15361668366744829</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>0.3258775735222732</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>0.15361668366744829</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>0.15361668366744829</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>0.19606281326629149</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>1.720956220909033E-2</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="G72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>0.18898147680293731</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>0.22737263379041431</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>0.18898147680293731</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>0.18898147680293731</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>0.23730881715636551</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>-3.1625881355591738E-2</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="G73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>0.17533785138664049</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>0.18683053004300729</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>0.1426814460083643</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>0.15606409640046209</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>0.1332711783912941</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
         <v>0.20581489777023171</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="G74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>0.1678547039596332</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>0.15880356328213599</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>0.16276363264943761</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>0.1678547039596332</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="2">
         <v>0.17141037500890191</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
         <v>0.17131302114025809</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="G75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>0.15652533257435669</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>0.14789491794733031</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>0.15652533257435669</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>0.14789491794733031</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>0.18554991077205091</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>0.2056095881845752</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="G76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>0.1168805277072766</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>0.197357073779172</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>0.1168805277072766</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>9.1951981529237697E-2</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>0.2245918378430341</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
         <v>0.25233805143400312</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="G77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>0.13865294832512151</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>0.1039572674676592</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>0.1511951422023069</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>0.1511951422023069</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>0.2165362861113698</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="2">
         <v>0.23846321369123569</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="G78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>0.165255872980725</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>0.23790956999887139</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>0.165255872980725</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>0.165255872980725</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="2">
         <v>-2.1368687988479341E-3</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="2">
         <v>0.26845967985780139</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="G79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>0.1639906779743584</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>0.1790812211917033</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>0.1631452168300945</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>0.17206772373030629</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="2">
         <v>0.1401115364552753</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="2">
         <v>0.18160362381826209</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="G80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>0.1366910966259757</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>0.1879535064434017</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>0.1366910966259757</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>0.1366910966259757</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>0.182010677634764</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="2">
         <v>0.2199625260439072</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="G81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>0.2003939125836606</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>0.19977390536749359</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>0.1877582653429396</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>0.2003939125836606</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>0.19779874719179161</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="2">
         <v>1.3881256930453971E-2</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="G82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>0.19144992218818641</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>0.18878538467599751</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>3.4144500970185267E-2</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>0.18917989795817861</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>0.1859557679238035</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="2">
         <v>0.21048452628364869</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="G83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>0.17449612031995931</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>0.2058475913822308</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>0.1390590139938212</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>0.17449612031995931</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>0.14830398404461859</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="2">
         <v>0.1577971699394109</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="G84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>0.16801511049794429</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>0.15113965129013099</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>0.1506025768823657</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>0.16801511049794429</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>0.17372378903441599</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>0.1885037617971986</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="G85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>0.16581005288163711</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>0.171724655423768</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>0.14774485097312079</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>0.1673288547240816</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>0.16358921777674101</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>0.18380236822065149</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="G86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>0.1673066881637319</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>9.8804257005153232E-2</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>0.1673066881637319</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>2.5956367617873739E-2</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="2">
         <v>0.24806409598697821</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="2">
         <v>0.29256190306253099</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="G87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>0.1508343108438471</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>0.170432216155573</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>0.1508343108438471</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>0.1508343108438471</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>0.1826744842700698</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>0.1943903670428159</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="G88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>0.1731371444009327</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>0.2773694688588792</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>0.15329970341839569</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>0.1731371444009327</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>-1.6485147742663891E-3</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
         <v>0.22470505369512619</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="G89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>0.164522042085571</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>0.18048279116054011</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>0.13832623445520439</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>0.15837884371829761</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>0.16232794149702781</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
         <v>0.19596214708335899</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="G90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>0.17591337654094011</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>0.18572288734705211</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>0.16952172229482301</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>0.17335394803725909</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>0.10885849836257259</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
         <v>0.18662956741735309</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="G91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>0.18094783759757949</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>0.20311159006700311</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>3.5302338958693572E-2</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>0.18094783759757949</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>0.18056520179158489</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="2">
         <v>0.2191251939875595</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="G92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>0.16819851062512861</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>0.1782266550169061</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>0.1304706313757609</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>0.1659480928315108</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>0.16724899276112279</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="2">
         <v>0.18990711738957081</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="G93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>0.16862463582438089</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>0.17702389800881349</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>0.13414572162531091</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>0.16862463582438089</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>0.16649958371177559</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="2">
         <v>0.1850815250053382</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="G94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>0.15258576000024049</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>0.13446182118459021</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>0.15258576000024049</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>0.15258576000024049</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="2">
         <v>0.19433370487433349</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="2">
         <v>0.2134471939403548</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="G95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>0.16610856385319961</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>0.14811974960649341</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>0.16151960751389929</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>0.17165587194871959</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>0.16848792765766871</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="2">
         <v>0.18410827942001939</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="G96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>0.13697458300287821</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>0.18287456938014249</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>0.13965573448144999</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>0.13965573448144999</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>0.19361121945077689</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="2">
         <v>0.2072281592033024</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="G97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>0.16747549060028519</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>0.159584980087317</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>0.15418107780652371</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>0.16747549060028519</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>0.16976990905160849</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
         <v>0.18151305185398039</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="G98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>0.15485649631359141</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>0.1900295755106946</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>0.15485649631359141</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>0.15485649631359141</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>0.14639649451701681</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="2">
         <v>0.19900444103151421</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="G99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>0.1526091412338948</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>0.19471718519281539</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>9.5342843732896421E-2</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>0.1526091412338948</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>0.18479360675152179</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="2">
         <v>0.21992808185497681</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="G100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>0.1643148127680015</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>0.17188392944537489</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>0.15859900688527559</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>0.1643148127680015</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>0.16203888611415401</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>0.17884855201919261</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="G101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>0.1763046986990976</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>0.24715260588789961</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>0.15346927526971399</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>0.1763046986990976</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
         <v>0.19630052779495599</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
         <v>5.0468193649235132E-2</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="G102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>0.1488244623721251</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>0.1846556212561169</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>0.1488244623721251</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>0.1488244623721251</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>0.18798424773750799</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
         <v>0.1808867438899999</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="G103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>0.17159565788514389</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>0.19460938088826379</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>7.8444379397482555E-2</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>0.16948597698251941</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>0.18355295240268671</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
         <v>0.20231165244390359</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="G104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>0.16488420559508141</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>9.1392193194659785E-2</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>0.15681001713318199</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>0.16488420559508141</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>0.21146423167102429</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="2">
         <v>0.2105651468109711</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="G105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>0.1392323769241183</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>0.18698274924884989</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>0.13519984850871691</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>0.1392323769241183</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>0.19544851404953781</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="2">
         <v>0.2039041343446589</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="G106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>0.17282388458053721</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>0.16988265861089599</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>0.13779840380576999</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>0.17282388458053721</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>0.16527725636518351</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>0.18139391205707611</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="G107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>0.17096107733418081</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>0.16776810188641161</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>0.15267414543366881</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>0.16448838880544589</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>0.167885880818401</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>0.17622240572189199</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="G108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>0.1264473409941213</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>0.2401648474513518</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>0.1264473409941213</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>0.1264473409941213</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2">
         <v>4.7137965247476571E-2</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>0.33335516431880791</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="G109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>3.5370695290321157E-2</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>0.22174978824898309</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>0.1354395550674318</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>0.1354395550674318</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2">
         <v>0.20813385237251891</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="2">
         <v>0.26386655395331332</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="G110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>0.1468411133085101</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>0.2180469433500565</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>0.13277512978465031</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>0.1468411133085101</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="2">
         <v>0.16398092841327289</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="2">
         <v>0.1915147718350001</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="G111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>0.17074427009407331</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>0.1631328668176219</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>0.15706002899420121</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>0.16634826344718309</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>0.1624023200504322</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="2">
         <v>0.18031225059648839</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="G112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
         <v>0.1323229361747581</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>0.18931351132321469</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>0.1323229361747581</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>0.1323229361747581</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>0.18758716926972399</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="2">
         <v>0.22613051088278691</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="G113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>0.15461792267229099</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>0.20778509964124131</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>0.1063093546399624</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>0.15461792267229099</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
         <v>0.16963138282994941</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="2">
         <v>0.20703831754426499</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="G114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
         <v>0.16011236061201861</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>0.12793420753676549</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>0.16011236061201861</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>0.16011236061201861</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2">
         <v>0.19001105748416361</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="2">
         <v>0.2017176531430151</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="G115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I115" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>0.1350777379458756</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>0.1813921924142895</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>0.1532353305381767</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>0.1532353305381767</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
         <v>0.1871102549088455</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="2">
         <v>0.18994915365463591</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="G116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>0.1234311621168183</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <v>0.21735743241337149</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>0.1234311621168183</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>0.1234311621168183</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2">
         <v>0.2104844065770983</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="2">
         <v>0.2018646746590754</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="G117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>0.14565600149284649</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>0.1783708724182782</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
         <v>0.14565600149284649</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>0.14565600149284649</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2">
         <v>0.18390309944343269</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="2">
         <v>0.2007580236597496</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+      <c r="G118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>0.15032125965959281</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>0.2082622942464962</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>8.1788970129104771E-2</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>0.15032125965959281</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2">
         <v>0.17109775473829539</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="2">
         <v>0.238208461566918</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="G119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>0.20717764052566229</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>0.24725815927857109</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>0.1789858170571208</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>0.20717764052566229</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
         <v>-7.7164362476956794E-2</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="2">
         <v>0.23656510508994019</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="G120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I120" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>0.16528988854513599</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>0.1748746285382029</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>0.16114761218238541</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>0.16528988854513599</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2">
         <v>0.15665030536026439</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="2">
         <v>0.17674767682887529</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="G121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
         <v>0.17119136860048509</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>0.17484283493177041</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>0.16184159883052379</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="2">
         <v>0.169428606145723</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2">
         <v>0.1678750984780355</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="2">
         <v>0.15482049301346221</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="G122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>0.1531933627437197</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>0.1903891217190623</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>0.1531933627437197</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>0.1531933627437197</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2">
         <v>0.18320256708689989</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="2">
         <v>0.1668282229628788</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="G123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>0.16717306720065589</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>0.17650625136056261</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>0.1467602847527989</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="2">
         <v>0.16717306720065589</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="2">
         <v>0.16049914976458141</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="2">
         <v>0.1818881797207452</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="G124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I124" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>0.1696193665181249</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>0.17145179211679709</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>0.15959421948226721</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>0.16000902778248849</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2">
         <v>0.1657785859828079</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="2">
         <v>0.17354700811751439</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="G125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>0.1691690339110298</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>0.16973772222088271</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>0.1516743029290098</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>0.1691690339110298</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2">
         <v>0.16587912048867379</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="2">
         <v>0.1743707865393741</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="G126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>0.15618921654936449</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>0.1701870720338064</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>0.13972305473548269</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>0.1653424124484327</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="2">
         <v>0.16746709697349341</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="2">
         <v>0.20109114725942029</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="G127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I127" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>0.166013422158763</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>0.17556934537853369</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>0.1464878787299628</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>0.16515577281460991</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>0.1621483710711234</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="2">
         <v>0.1846252098470072</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="G128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>0.17607755728373981</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <v>0.1230830322344233</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>0.16720386173789781</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>0.17607755728373981</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>0.17709119654578209</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="2">
         <v>0.18046679491441731</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+      <c r="G129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I129" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>0.16810640350538411</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <v>0.23243014653820121</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>0.16810640350538411</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>0.16810640350538411</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>4.3236940877551817E-2</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="2">
         <v>0.22001370206809459</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="G130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>0.1740513254598437</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <v>0.18696038947420399</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>0.1147530199820874</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>0.1740513254598437</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>0.15871125676787279</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="2">
         <v>0.19147268285614849</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="G131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I131" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>0.1803716714979372</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <v>0.2066853186926266</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>0.1679587170177361</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>0.1803716714979372</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>8.8615979938190231E-2</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="2">
         <v>0.1759966413555728</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="G132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>0.1494391788757167</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <v>0.19723958691849069</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>0.1494391788757167</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>0.1494391788757167</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>0.18481518732852861</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="2">
         <v>0.16962768912583059</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="G133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>0.17352958577122041</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <v>0.2243273247924189</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>6.9926237736982991E-2</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>0.17352958577122041</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>0.15985622560032431</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="2">
         <v>0.19883104032783319</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="G134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I134" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>0.16787697018776801</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <v>0.1668290760621908</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>0.15076243068219761</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>0.16787697018776801</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>0.16932378288762451</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="2">
         <v>0.17733076999245101</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="G135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>7.9621331801169384E-2</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <v>0.19083485921644791</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>0.16104224244657481</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>0.17026089946936851</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>0.18512323253844651</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="2">
         <v>0.21311743452799289</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="G136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>0.15846065962379191</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <v>0.1467542972337334</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>0.15846065962379191</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>0.15846065962379191</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>0.1864032854282934</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="2">
         <v>0.19146043846659749</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="G137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>0.1809543687717925</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <v>8.2699390516805804E-2</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>0.1809543687717925</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <v>0.1809543687717925</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>0.1802618114522965</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="2">
         <v>0.19417569171552021</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="G138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>0.1533570308509736</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <v>0.2102788148620654</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>7.8485708222489639E-2</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="2">
         <v>0.1533570308509736</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2">
         <v>0.17420955684331749</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="2">
         <v>0.23031185837018031</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="G139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>0.15830331517565141</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <v>0.18748343948276691</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>0.15830331517565141</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <v>0.15830331517565141</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>0.16456608105360149</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="2">
         <v>0.17304053393667729</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="G140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>0.17010761039062769</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <v>0.13828607956728731</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>0.17010761039062769</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="2">
         <v>0.11510606339400099</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="2">
         <v>0.19804729231199469</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="2">
         <v>0.20834534394546159</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="G141" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I141" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
         <v>0.17694997358865269</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <v>0.16796413516867709</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>0.14891785677772471</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <v>0.17694997358865269</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2">
         <v>0.1724597224370816</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="2">
         <v>0.15675833843921111</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="G142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>0.16884950094371109</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <v>0.16856612035553381</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>0.1568324327791431</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <v>0.16884789740690281</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>0.15842517540910969</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="2">
         <v>0.1784788731055994</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="G143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>0.1528572947565405</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <v>0.201896224141208</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>7.0593882785496581E-2</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <v>0.1528572947565405</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>0.19594260946757749</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="2">
         <v>0.22585269409263681</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="G144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>0.1846956053824792</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <v>0.2068127901213076</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>1.385543325099846E-2</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <v>0.1846956053824792</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>0.19203872800514279</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="2">
         <v>0.21790183785759271</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="G145" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
         <v>0.17195534705705029</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <v>0.18251579211587621</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>8.1215023656699803E-2</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <v>0.17195534705705029</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>0.17245798807963539</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="2">
         <v>0.21990050203368811</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+      <c r="G146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
         <v>0.15097337848670231</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <v>0.21774850635704121</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>0.1336380083827273</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <v>0.15097337848670231</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>0.15352795290697199</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="2">
         <v>0.19313877537985491</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+      <c r="G147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>0.16986386951675639</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <v>0.18426660084411539</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>0.12905057744717521</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <v>0.16005731414848609</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>0.1563424382790071</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="2">
         <v>0.20041919976445971</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+      <c r="G148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>0.14551187895651829</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <v>0.2336722296465146</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>0.14551187895651829</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <v>0.14551187895651829</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>6.9294111673483691E-2</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="2">
         <v>0.26049802181044679</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+      <c r="G149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I149" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
         <v>0.13606976629047129</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <v>0.17587027506194611</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <v>0.16453064063240441</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <v>0.1692006629589376</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>0.172302330022468</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="2">
         <v>0.1820263250337727</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="G150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>0.1487104254819426</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <v>0.19642111479017541</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>0.1487104254819426</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <v>0.1487104254819426</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>0.16447295470277259</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="2">
         <v>0.19297465406122419</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+      <c r="G151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
         <v>0.14802845547444479</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <v>0.12340644621166801</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <v>0.14802845547444479</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <v>0.12340644621166801</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>0.21087390786567661</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="2">
         <v>0.24625628876209779</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+      <c r="G152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
         <v>0.16869043270552109</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <v>0.17703705317616919</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>0.1459344687467152</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <v>0.16869043270552109</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>0.1596810075197822</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="2">
         <v>0.17996660514629109</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="G153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I153" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
         <v>0.17440858825379871</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <v>0.13578097963555069</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>0.153087953692055</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <v>0.17440858825379871</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="2">
         <v>0.1690497811301499</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="2">
         <v>0.193264109034647</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+      <c r="G154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
         <v>0.17259109679961521</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <v>8.8872751712170267E-2</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>0.17259109679961521</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="2">
         <v>0.17259109679961521</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="2">
         <v>0.19249919537377119</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="2">
         <v>0.20085476251521281</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+      <c r="G155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
         <v>0.17556029496198811</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <v>9.6734011705533265E-2</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>0.16367649364550499</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <v>0.17556029496198811</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2">
         <v>0.1841400101791702</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="2">
         <v>0.2043288945458154</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+      <c r="G156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I156" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
         <v>0.16868212874291469</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <v>0.1691231898304614</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>0.1470324351248804</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <v>0.16868212874291469</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="2">
         <v>0.1646307139075166</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="2">
         <v>0.18184940365131211</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="G157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I157" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
         <v>0.1347681150528309</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <v>8.1651402828942024E-2</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <v>0.1347681150528309</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <v>4.5735841779772711E-2</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="2">
         <v>0.26663145341849909</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="2">
         <v>0.33644507186712441</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+      <c r="G158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
         <v>0.17220012703011911</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <v>0.1471474679450899</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>0.1602761076691851</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <v>0.16638598178612121</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="2">
         <v>0.17112395468041719</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="2">
         <v>0.18286636088906741</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="G159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
         <v>0.1397048783883019</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <v>0.1217802397532598</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>0.1397048783883019</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
         <v>0.1397048783883019</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2">
         <v>0.2205916373213623</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="2">
         <v>0.23851348776047229</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+      <c r="G160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I160" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
         <v>0.12034012183163</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <v>0.13575245905299629</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>0.15273339532891969</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <v>0.15273339532891969</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="2">
         <v>0.20716271650909879</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="2">
         <v>0.23127791194843539</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+      <c r="G161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
         <v>0.17193650231940849</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <v>0.1967638901176294</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>0.13471809004784441</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
         <v>0.17193650231940849</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>0.15876491347071819</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="2">
         <v>0.1658801017249911</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+      <c r="G162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I162" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
         <v>0.1750236716327081</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <v>0.1982218194494661</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>0.15604656768934949</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="2">
         <v>0.1750236716327081</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="2">
         <v>0.18654357484986389</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="2">
         <v>0.10914069474590429</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+      <c r="G163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I163" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
         <v>0.16320335555744719</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <v>0.22425001659844951</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <v>5.2184120882187837E-2</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="2">
         <v>0.16320335555744719</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="2">
         <v>0.17744899544058881</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="2">
         <v>0.21971015596387941</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+      <c r="G164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
         <v>0.18082734221846111</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <v>0.1823290731929563</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>0.10391075331955391</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="2">
         <v>0.17639617347716971</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="2">
         <v>0.17459866827802381</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="2">
         <v>0.1819379895138353</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="G165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I165" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
         <v>0.14759023664672019</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="2">
         <v>0.17790949377200321</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>0.14759023664672019</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="2">
         <v>0.14759023664672019</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="2">
         <v>0.18501626112452249</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="2">
         <v>0.1943035351633135</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="G166" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
         <v>0.16377737422803959</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="2">
         <v>0.17394909593019431</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>0.15635349711725829</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="2">
         <v>0.16129623590008879</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="2">
         <v>0.1715362162592845</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="2">
         <v>0.1730875805651344</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="G167" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I167" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
         <v>0.16815009458593119</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <v>0.17171855349328199</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>0.14337108734515541</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="2">
         <v>0.16815009458593119</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="2">
         <v>0.1652563055767336</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="2">
         <v>0.1833538644129665</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="G168" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I168" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
         <v>0.16700803742992401</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <v>0.22648311618261049</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>0.16700803742992401</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="2">
         <v>0.16700803742992401</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="2">
         <v>5.8416439362955319E-2</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="2">
         <v>0.2140763321646624</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+      <c r="G169" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I169" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
         <v>-3.7671821342042609E-4</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <v>0.26577634519597237</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>0.1194781091609862</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="2">
         <v>1.051791595117499E-2</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="2">
         <v>0.24772657843245219</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="2">
         <v>0.35687776947283462</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+      <c r="G170" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
         <v>0.14907921709297489</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <v>0.18592772238192939</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>0.14534989118011649</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="2">
         <v>0.14907921709297489</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="2">
         <v>0.17450698856846439</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="2">
         <v>0.19605696368353989</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+      <c r="G171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
         <v>0.12301256933094119</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <v>0.2043242817088263</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="2">
         <v>0.12301256933094119</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="2">
         <v>0.12301256933094119</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="2">
         <v>0.19366353791062371</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="2">
         <v>0.23297447238772631</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="G172" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
         <v>0.1450334685760393</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <v>0.20208992362163761</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>7.7872071817071176E-2</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="2">
         <v>0.1450334685760393</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="2">
         <v>0.18692989239941829</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="2">
         <v>0.2430411750097943</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="G173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I173" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
         <v>0.1697324033520872</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="2">
         <v>0.18420121793888311</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="2">
         <v>0.16673104793502841</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="2">
         <v>0.1697324033520872</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="2">
         <v>0.12841408397246751</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="2">
         <v>0.18118884344944661</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="G174" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I174" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
         <v>0.17582369135205</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="2">
         <v>0.14942077541794041</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>0.15592840524133031</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="2">
         <v>0.1750125029863821</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="2">
         <v>0.16636471474690789</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="2">
         <v>0.17744991025538931</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+      <c r="G175" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
         <v>0.16289069742601961</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <v>0.15474473994444579</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>0.16289069742601961</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="2">
         <v>0.12654964274030561</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="2">
         <v>0.19493278521914159</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176" s="2">
         <v>0.19799143724406801</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+      <c r="G176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I176" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
         <v>0.1268051776154871</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="2">
         <v>-1.4171759955445021E-2</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>0.1268051776154871</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="2">
         <v>0.1268051776154871</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="2">
         <v>0.26004574315341961</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="2">
         <v>0.37371048395556422</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+      <c r="G177" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
         <v>0.15949621069389139</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="2">
         <v>0.15805270493138929</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
         <v>0.15949621069389139</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="2">
         <v>0.15949621069389139</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="2">
         <v>0.1697978435918947</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178" s="2">
         <v>0.1936608193950419</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+      <c r="G178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
         <v>0.15819525841734541</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="2">
         <v>0.1441202826944433</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>0.15847392558453369</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="2">
         <v>0.16283419638353269</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="2">
         <v>0.17671725405945621</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="2">
         <v>0.1996590828606887</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+      <c r="G179" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
         <v>0.1525941818654209</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="2">
         <v>0.14634635099284651</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="2">
         <v>0.1525941818654209</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="2">
         <v>0.14634635099284651</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="2">
         <v>0.19055665954556231</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180" s="2">
         <v>0.21156227473790301</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+      <c r="G180" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I180" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
         <v>0.12917646964597851</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="2">
         <v>0.1835780611059504</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="2">
         <v>0.161427108006163</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="2">
         <v>0.15417500602106229</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="2">
         <v>0.179375685653343</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="2">
         <v>0.19226766956750271</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+      <c r="G181" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
         <v>0.1798067595864658</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="2">
         <v>0.1936132824154666</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>0.15360416596633961</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="2">
         <v>0.14141852838400859</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="2">
         <v>0.14939377275325821</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182" s="2">
         <v>0.18216349089446121</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+      <c r="G182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I182" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
         <v>0.19423559203847429</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="2">
         <v>0.19626226889526191</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>0.17481046896290489</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="2">
         <v>0.19423559203847429</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="2">
         <v>0.1911470563719305</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" s="2">
         <v>4.9309021692953987E-2</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+      <c r="G183" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I183" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
         <v>0.16750294557909631</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="2">
         <v>0.17175663537467431</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>0.1572298072473147</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="2">
         <v>0.1782875246530761</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="2">
         <v>0.16780871340810169</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F184" s="2">
         <v>0.15741437373773701</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+      <c r="G184" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I184" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
         <v>0.17329398879215591</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="2">
         <v>0.17199340206715591</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>0.145767517670534</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="2">
         <v>0.17189396180103991</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="2">
         <v>0.1604505854893441</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="2">
         <v>0.1766005441797702</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+      <c r="G185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
         <v>0.1790514298249713</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="2">
         <v>0.17315136829839531</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="2">
         <v>0.1627604496326816</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="2">
         <v>0.17581013635039269</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="2">
         <v>0.17209464231083441</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186" s="2">
         <v>0.13713197358272469</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+      <c r="G186" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I186" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
         <v>0.15325592663082971</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="2">
         <v>0.18975074254216151</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>9.3215719919971671E-2</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="2">
         <v>0.15325592663082971</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="2">
         <v>0.21016218062854791</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="2">
         <v>0.2003595036476595</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+      <c r="G187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I187" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
         <v>0.1527434752531229</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="2">
         <v>0.18584396835484979</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="2">
         <v>0.13535557642259499</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="2">
         <v>0.1527434752531229</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="2">
         <v>0.18505518865961759</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188" s="2">
         <v>0.1882583160566918</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+      <c r="G188" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I188" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
         <v>0.13066520600925349</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="2">
         <v>0.22679888764047221</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>0.13066520600925349</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="2">
         <v>0.13066520600925349</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="2">
         <v>0.1638577741155304</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="2">
         <v>0.21734772021623669</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+      <c r="G189" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
         <v>0.1664763282100713</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="2">
         <v>0.17045768460678201</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="2">
         <v>0.1588661941396137</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="2">
         <v>0.1664763282100713</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="2">
         <v>0.16375547500741031</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="2">
         <v>0.17396798982605161</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+      <c r="G190" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I190" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
         <v>0.13933333075818141</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="2">
         <v>0.2015414681820222</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>0.11683098725893271</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="2">
         <v>0.13933333075818141</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="2">
         <v>0.18020025180545901</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="2">
         <v>0.22276063123722331</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+      <c r="G191" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I191" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
         <v>0.15311314407479981</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="2">
         <v>0.184108370882512</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>0.13276530865202071</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="2">
         <v>0.15311314407479981</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="2">
         <v>0.17201417186132961</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192" s="2">
         <v>0.20488586045453799</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+      <c r="G192" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I192" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
         <v>0.15834472212004841</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="2">
         <v>0.1974944291563874</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>7.3853955173526872E-2</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="2">
         <v>0.15834472212004841</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="2">
         <v>0.19054453120362111</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="2">
         <v>0.22141764022636781</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+      <c r="G193" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I193" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
         <v>0.17007480826293839</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="2">
         <v>0.17754909076340611</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>0.15567352019378961</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="2">
         <v>0.14931719954116171</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="2">
         <v>0.16801187740265769</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194" s="2">
         <v>0.1793735038360465</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+      <c r="G194" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I194" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
         <v>0.13631078518763279</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="2">
         <v>0.20088515358416439</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>0.13631078518763279</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="2">
         <v>0.13631078518763279</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="2">
         <v>0.16703069191847761</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="2">
         <v>0.22315179893445969</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+      <c r="G195" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
         <v>0.1448251820748106</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="2">
         <v>0.2208208204087628</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="2">
         <v>0.12990104114778361</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="2">
         <v>0.1448251820748106</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="2">
         <v>0.16257664484136511</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196" s="2">
         <v>0.19705112945246739</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+      <c r="G196" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I196" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
         <v>0.17924920261035629</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="2">
         <v>0.1144471340844717</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>0.16153416796693301</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="2">
         <v>0.18172233844809271</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="2">
         <v>0.1719713042600102</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="2">
         <v>0.19107585263013621</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+      <c r="G197" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I197" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
         <v>0.1675389980685891</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="2">
         <v>0.15990855562899581</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="2">
         <v>0.15981584917121361</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="2">
         <v>0.1696984067612575</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198" s="2">
         <v>0.16739734709851189</v>
       </c>
-      <c r="F198" s="1">
+      <c r="F198" s="2">
         <v>0.1756408432714322</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+      <c r="G198" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I198" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
         <v>0.16919386218836871</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="2">
         <v>0.17594957873084799</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="2">
         <v>0.14030845416661639</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="2">
         <v>0.16919386218836871</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="2">
         <v>0.16772088871452279</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="2">
         <v>0.17763335401127539</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+      <c r="G199" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I199" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
         <v>0.16590083844953279</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="2">
         <v>0.14453407993130521</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="2">
         <v>0.16431716887431819</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="2">
         <v>0.16590083844953279</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="2">
         <v>0.17794587969454109</v>
       </c>
-      <c r="F200" s="1">
+      <c r="F200" s="2">
         <v>0.18140119460076989</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+      <c r="G200" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I200" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
         <v>0.17202270498402941</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="2">
         <v>8.900276696352015E-2</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="2">
         <v>0.15755387895317691</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="2">
         <v>0.17202270498402941</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="2">
         <v>0.1957225077801901</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="2">
         <v>0.21367543633505401</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+      <c r="G201" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I201" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
         <v>0.17601508007612249</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="2">
         <v>0.1611674633231423</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="2">
         <v>0.1085202526205527</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="2">
         <v>0.17601508007612249</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="2">
         <v>0.18822861733918689</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202" s="2">
         <v>0.19005350656487319</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+      <c r="G202" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I202" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
         <v>0.14826006120137261</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="2">
         <v>0.17712906074821011</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>0.14826006120137261</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="2">
         <v>0.14826006120137261</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="2">
         <v>0.18490707562275641</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="2">
         <v>0.19318368002491579</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+      <c r="G203" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I203" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
         <v>0.18691742686940641</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="2">
         <v>0.20325369485272449</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
         <v>0.15951528136917989</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="2">
         <v>4.3586693142523371E-2</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="2">
         <v>0.19111340260716081</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F204" s="2">
         <v>0.2156135011590051</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
+      <c r="G204" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I204" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
         <v>0.16191745826329221</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="2">
         <v>0.1019879894200313</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>0.17068314454808001</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="2">
         <v>0.17661339328330261</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="2">
         <v>0.1864391217178297</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205" s="2">
         <v>0.20235889276746419</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
+      <c r="G205" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I205" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
         <v>0.1422952707915211</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="2">
         <v>0.1571236651268493</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="2">
         <v>0.1422952707915211</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="2">
         <v>0.1422952707915211</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="2">
         <v>0.2029624071111803</v>
       </c>
-      <c r="F206" s="1">
+      <c r="F206" s="2">
         <v>0.21302811538740721</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
+      <c r="G206" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
         <v>0.16683472849314729</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="2">
         <v>0.1851965444579938</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>0.16683472849314729</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="2">
         <v>0.16683472849314729</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="2">
         <v>0.15664086016600989</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207" s="2">
         <v>0.1576584098965543</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
+      <c r="G207" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I207" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
         <v>0.165293850368082</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="2">
         <v>0.2047107665006572</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="2">
         <v>0.13042513508863871</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="2">
         <v>0.165293850368082</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="2">
         <v>0.17347617540371499</v>
       </c>
-      <c r="F208" s="1">
+      <c r="F208" s="2">
         <v>0.16080022227082499</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
+      <c r="G208" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I208" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
         <v>0.21086315279203879</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="2">
         <v>0.18162152645977139</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>0.200002438308505</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="2">
         <v>0.19254929474632751</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209" s="2">
         <v>0.2055693541025127</v>
       </c>
-      <c r="F209" s="1">
+      <c r="F209" s="2">
         <v>9.3942335908445279E-3</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
+      <c r="G209" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I209" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
         <v>0.14849423709686621</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="2">
         <v>0.21818171812386641</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="2">
         <v>0.1192141612301775</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="2">
         <v>0.14849423709686621</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210" s="2">
         <v>0.14081831996785221</v>
       </c>
-      <c r="F210" s="1">
+      <c r="F210" s="2">
         <v>0.22479732648437159</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
+      <c r="G210" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I210" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
         <v>0.135368507423623</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="2">
         <v>0.22420340234934419</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="2">
         <v>0.135368507423623</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="2">
         <v>0.135368507423623</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="2">
         <v>0.15768139628630751</v>
       </c>
-      <c r="F211" s="1">
+      <c r="F211" s="2">
         <v>0.21200967909347929</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
+      <c r="G211" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
         <v>0.16002233209004171</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="2">
         <v>0.2376568491887649</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="2">
         <v>6.8665262623093637E-2</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="2">
         <v>0.16002233209004171</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="2">
         <v>0.20959231396768579</v>
       </c>
-      <c r="F212" s="1">
+      <c r="F212" s="2">
         <v>0.1640409100403723</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
+      <c r="G212" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I212" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
         <v>0.1699503436577276</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="2">
         <v>0.1570815609939579</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>0.15971244502632401</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="2">
         <v>0.1699503436577276</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="2">
         <v>0.1632531019839128</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213" s="2">
         <v>0.18005220468035019</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
+      <c r="G213" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I213" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
         <v>0.15884737059923881</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="2">
         <v>0.1859259286193119</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="2">
         <v>0.14767157782402229</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="2">
         <v>0.15884737059923881</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="2">
         <v>0.15357127130963899</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F214" s="2">
         <v>0.19513648104854939</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
+      <c r="G214" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I214" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
         <v>0.1643789273628051</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="2">
         <v>0.18992053134727269</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>0.15405275816715611</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="2">
         <v>0.1643789273628051</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="2">
         <v>0.14052317398769781</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215" s="2">
         <v>0.18674568177226319</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
+      <c r="G215" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I215" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
         <v>0.16444178077162039</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="2">
         <v>0.17104208086574421</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="2">
         <v>0.157316438595517</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="2">
         <v>0.16836530530599531</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="2">
         <v>0.1612811312133331</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216" s="2">
         <v>0.17755326324779011</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
+      <c r="G216" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I216" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
         <v>0.13021798828218961</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="2">
         <v>0.20721005207785659</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="2">
         <v>0.13021798828218961</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="2">
         <v>0.13021798828218961</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217" s="2">
         <v>0.17734173098858849</v>
       </c>
-      <c r="F217" s="1">
+      <c r="F217" s="2">
         <v>0.22479425208698589</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
+      <c r="G217" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I217" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
         <v>0.16529979654709781</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="2">
         <v>0.1757784915075811</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="2">
         <v>0.15003447113550891</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="2">
         <v>0.1624999233777758</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218" s="2">
         <v>0.16479735739362919</v>
       </c>
-      <c r="F218" s="1">
+      <c r="F218" s="2">
         <v>0.18158996003840719</v>
       </c>
-      <c r="G218" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
+      <c r="G218" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I218" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
         <v>0.16285521867199579</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="2">
         <v>0.17546577708230901</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>0.1500925565348768</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="2">
         <v>0.16285521867199579</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="2">
         <v>0.16781550070442661</v>
       </c>
-      <c r="F219" s="1">
+      <c r="F219" s="2">
         <v>0.18091572833439579</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
+      <c r="G219" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I219" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
         <v>0.17367801891678439</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="2">
         <v>0.18166617054701059</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="2">
         <v>0.13796996439983</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="2">
         <v>0.14937476878816611</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="2">
         <v>0.17051481734480201</v>
       </c>
-      <c r="F220" s="1">
+      <c r="F220" s="2">
         <v>0.18679626000340691</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
+      <c r="G220" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I220" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
         <v>0.169213197557852</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="2">
         <v>0.16936269896206821</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="2">
         <v>0.15341302063980961</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="2">
         <v>0.1622532945798574</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="2">
         <v>0.17099100886664939</v>
       </c>
-      <c r="F221" s="1">
+      <c r="F221" s="2">
         <v>0.17476677939376339</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
+      <c r="G221" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I221" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
         <v>0.14368246760758671</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="2">
         <v>0.19625933674283719</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="2">
         <v>0.14368246760758671</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="2">
         <v>0.14368246760758671</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="2">
         <v>0.15520085187622421</v>
       </c>
-      <c r="F222" s="1">
+      <c r="F222" s="2">
         <v>0.21749240855817839</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
+      <c r="G222" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
         <v>0.16335868864244871</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="2">
         <v>0.17071328093857299</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="2">
         <v>0.13434706055414741</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="2">
         <v>0.16335868864244871</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="2">
         <v>0.1452158554927577</v>
       </c>
-      <c r="F223" s="1">
+      <c r="F223" s="2">
         <v>0.22300642572962451</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
+      <c r="G223" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I223" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
         <v>0.13078368276684571</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="2">
         <v>0.19548276685902241</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="2">
         <v>0.13078368276684571</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="2">
         <v>0.13078368276684571</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="2">
         <v>0.18095431731179351</v>
       </c>
-      <c r="F224" s="1">
+      <c r="F224" s="2">
         <v>0.23121186752864689</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
+      <c r="G224" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I224" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
         <v>0.16734144250961039</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="2">
         <v>0.18181405500293679</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>0.16512488488486421</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="2">
         <v>0.1574136389628871</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="2">
         <v>0.13651724185212499</v>
       </c>
-      <c r="F225" s="1">
+      <c r="F225" s="2">
         <v>0.19178873678757649</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
+      <c r="G225" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I225" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
         <v>0.1681919447561312</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="2">
         <v>0.1691538723468714</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
         <v>0.14582298088952669</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="2">
         <v>0.1681919447561312</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="2">
         <v>0.16923759734278521</v>
       </c>
-      <c r="F226" s="1">
+      <c r="F226" s="2">
         <v>0.17940165990855431</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
+      <c r="G226" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I226" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
         <v>0.14611409149691701</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="2">
         <v>0.18290636963258511</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>0.14611409149691701</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="2">
         <v>0.14611409149691701</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="2">
         <v>0.18542931384698069</v>
       </c>
-      <c r="F227" s="1">
+      <c r="F227" s="2">
         <v>0.1933220420296832</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
+      <c r="G227" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I227" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
         <v>0.1685598420757046</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="2">
         <v>0.16087648264735299</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="2">
         <v>0.15302519468610309</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="2">
         <v>0.15246533262672071</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="2">
         <v>0.17401890512438109</v>
       </c>
-      <c r="F228" s="1">
+      <c r="F228" s="2">
         <v>0.19105424283973749</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
+      <c r="G228" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I228" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
         <v>0.18184886080439019</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="2">
         <v>9.8812754574355247E-2</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>0.16554759367055949</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="2">
         <v>0.18184886080439019</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="2">
         <v>0.18041980971506799</v>
       </c>
-      <c r="F229" s="1">
+      <c r="F229" s="2">
         <v>0.1915221204312367</v>
       </c>
-      <c r="G229" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
+      <c r="G229" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I229" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
         <v>0.16943769129897701</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="2">
         <v>0.14856744937436331</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="2">
         <v>0.15358327187607751</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="2">
         <v>0.17630627236206739</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230" s="2">
         <v>0.16723891815993211</v>
       </c>
-      <c r="F230" s="1">
+      <c r="F230" s="2">
         <v>0.18486639692858281</v>
       </c>
-      <c r="G230" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
+      <c r="G230" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I230" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
         <v>0.16565037308915551</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="2">
         <v>0.1122347111614428</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
         <v>0.16565037308915551</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="2">
         <v>0.16565037308915551</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="2">
         <v>0.1890240027750594</v>
       </c>
-      <c r="F231" s="1">
+      <c r="F231" s="2">
         <v>0.20179016679603121</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
+      <c r="G231" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I231" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
         <v>0.1619757569957361</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="2">
         <v>0.1710579451814721</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="2">
         <v>0.1547405592614769</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="2">
         <v>0.1619757569957361</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="2">
         <v>0.17414546573052919</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F232" s="2">
         <v>0.17610451583504949</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
+      <c r="G232" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I232" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
         <v>0.13546066382273211</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="2">
         <v>0.18004256490033871</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="2">
         <v>0.14023511272710451</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="2">
         <v>0.14023511272710451</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233" s="2">
         <v>0.1898692781308107</v>
       </c>
-      <c r="F233" s="1">
+      <c r="F233" s="2">
         <v>0.21415726769190949</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
+      <c r="G233" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I233" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
         <v>0.12909205139526589</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="2">
         <v>0.1810359998167938</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
         <v>0.12909205139526589</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="2">
         <v>0.12909205139526589</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="2">
         <v>0.198516899624781</v>
       </c>
-      <c r="F234" s="1">
+      <c r="F234" s="2">
         <v>0.23317094637262761</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
+      <c r="G234" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I234" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
         <v>0.1496059506160948</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="2">
         <v>0.2027629133422188</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="2">
         <v>0.1496059506160948</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="2">
         <v>7.5607663931388125E-2</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="2">
         <v>0.20565485815523901</v>
       </c>
-      <c r="F235" s="1">
+      <c r="F235" s="2">
         <v>0.21676266333896449</v>
       </c>
-      <c r="G235" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
+      <c r="G235" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I235" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
         <v>0.15715970078756819</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="2">
         <v>0.16542840124464209</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="2">
         <v>0.15715970078756819</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="2">
         <v>0.15715970078756819</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="2">
         <v>0.181204574148841</v>
       </c>
-      <c r="F236" s="1">
+      <c r="F236" s="2">
         <v>0.18188792224381231</v>
       </c>
-      <c r="G236" s="1" t="s">
-        <v>241</v>
+      <c r="G236" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I236" s="2">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>